--- a/Dhaval Sir (Home Practice)/New Microsoft Excel Worksheet.xlsx
+++ b/Dhaval Sir (Home Practice)/New Microsoft Excel Worksheet.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achyut Sharma\Documents\Dhaval Sir (Home Practice)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achyut Sharma\Documents\Data Sem 5\Dhaval Sir (Home Practice)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012B1E10-FED0-4F7B-999A-FFA0651DF1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307ADB5A-633B-49F3-AB4D-A2E17ECF1EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 July 23" sheetId="1" r:id="rId1"/>
-    <sheet name=" 4 JULY 23 EXERCISE 1" sheetId="2" r:id="rId2"/>
-    <sheet name="4 JULY 23(EXERCISE 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="5 July 23(Exercise1)" sheetId="4" r:id="rId2"/>
+    <sheet name=" 4 JULY 23 EXERCISE 1" sheetId="2" r:id="rId3"/>
+    <sheet name="4 JULY 23(EXERCISE 2)" sheetId="3" r:id="rId4"/>
+    <sheet name="5 July 23 (Exercise 2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="98">
   <si>
     <t>Roll No.</t>
   </si>
@@ -297,6 +321,39 @@
   </si>
   <si>
     <t>No.Of_Mondays_Days</t>
+  </si>
+  <si>
+    <t>use of sum and average</t>
+  </si>
+  <si>
+    <t>use of If</t>
+  </si>
+  <si>
+    <t>use of counta</t>
+  </si>
+  <si>
+    <t>use of countif</t>
+  </si>
+  <si>
+    <t>use of sumif</t>
+  </si>
+  <si>
+    <t>UppER()</t>
+  </si>
+  <si>
+    <t>Lower()</t>
+  </si>
+  <si>
+    <t>use of count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USE of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">use of sumifin ashok manoj </t>
+  </si>
+  <si>
+    <t>sumif(range of name,name ,criteria)</t>
   </si>
 </sst>
 </file>
@@ -452,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -463,14 +520,11 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -758,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,10 +1321,24 @@
       <c r="C25" t="s">
         <v>12</v>
       </c>
+      <c r="I25" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
+      </c>
+      <c r="B26">
+        <f>SUMIF(C2:C11,B25,I2:I11)</f>
+        <v>77</v>
+      </c>
+      <c r="C26">
+        <f>SUMIF(C2:C11,C25,I2:I11)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -1284,11 +1352,552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92779534-F1C8-458B-9B69-4E7C69BC400E}">
+  <dimension ref="B1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(D2:H2)</f>
+        <v>77</v>
+      </c>
+      <c r="J2" s="1">
+        <f>AVERAGE(I2/5)</f>
+        <v>15.4</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>IF(J2&gt;15,"A","B")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I11" si="0">SUM(D3:H3)</f>
+        <v>77</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J11" si="1">AVERAGE(I3/5)</f>
+        <v>15.4</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K11" si="2">IF(J3&gt;15,"A","B")</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>17.2</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>14.6</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>14.4</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>15.2</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>14.8</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>17.2</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="L15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="L16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="L17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17">
+        <f>COUNTIF(K2:K11,"A")</f>
+        <v>6</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17">
+        <f>COUNTIF(K2:K11,"B")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="L18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="L19" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19">
+        <f>COUNTA(C2:C11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="L20" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20">
+        <f>COUNTIF(D2:D11,"&gt;20")</f>
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20">
+        <f>COUNTIF(E2:E11,"&lt;15")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <f>COUNT(I2:I11,"ASHOK")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915E92F7-C11C-4DF4-98A1-134452350173}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,12 +2446,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA7E807-5B22-4474-9C70-9D7EDE6B7647}">
-  <dimension ref="B2:P42"/>
+  <dimension ref="B2:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,7 +2483,6 @@
       <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -1884,7 +2492,6 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -1900,7 +2507,6 @@
       <c r="F6" s="1">
         <v>46</v>
       </c>
-      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -1912,7 +2518,6 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -1922,7 +2527,6 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -1936,7 +2540,6 @@
       <c r="F9" s="1">
         <v>1084</v>
       </c>
-      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -1948,7 +2551,6 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
@@ -1962,7 +2564,6 @@
       <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="9"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -2072,7 +2673,6 @@
         <v>Yuvaraj Singh</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
@@ -2091,7 +2691,6 @@
         <v>Robin Uthappa</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
@@ -2110,7 +2709,6 @@
         <v>Ravindra Jadeja</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
@@ -2129,7 +2727,6 @@
         <v>Suresh Raina</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
@@ -2148,7 +2745,6 @@
         <v>Rohit Sharma</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
@@ -2167,7 +2763,6 @@
         <v>Virat Kholi</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -2186,7 +2781,6 @@
         <v>Rahul Dravid</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
@@ -2205,7 +2799,6 @@
         <v>Shreyas Iyyer</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="9"/>
     </row>
     <row r="35" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
@@ -2217,10 +2810,10 @@
       <c r="D35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G35" s="2"/>
@@ -2254,7 +2847,7 @@
       <c r="D36" s="1">
         <v>120</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <f>SUM(C36+D36)</f>
         <v>43993</v>
       </c>
@@ -2262,8 +2855,8 @@
         <f>DAY(E36)</f>
         <v>11</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9">
         <f>MONTH(E36)</f>
         <v>6</v>
       </c>
@@ -2271,19 +2864,21 @@
         <f>YEAR(E36)</f>
         <v>2020</v>
       </c>
-      <c r="J36" s="11"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="7" t="str">
         <f>TEXT(E36,"DDDD")</f>
         <v>Thursday</v>
       </c>
-      <c r="L36" s="15" t="str">
+      <c r="L36" s="12" t="str">
         <f>TEXT(E36,"MMMM")</f>
         <v>June</v>
       </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="9"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="11">
+        <f>COUNTIF(K36:K41,"Monday")</f>
+        <v>2</v>
+      </c>
+      <c r="O36" s="11"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
@@ -2295,7 +2890,7 @@
       <c r="D37" s="1">
         <v>70</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <f t="shared" ref="E37:E41" si="3">SUM(C37+D37)</f>
         <v>44339</v>
       </c>
@@ -2303,8 +2898,8 @@
         <f t="shared" ref="F37:F41" si="4">DAY(E37)</f>
         <v>23</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9">
         <f t="shared" ref="H37:H41" si="5">MONTH(E37)</f>
         <v>5</v>
       </c>
@@ -2312,19 +2907,18 @@
         <f t="shared" ref="I37:I41" si="6">YEAR(E37)</f>
         <v>2021</v>
       </c>
-      <c r="J37" s="11"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="7" t="str">
         <f t="shared" ref="K37:K41" si="7">TEXT(E37,"DDDD")</f>
         <v>Sunday</v>
       </c>
-      <c r="L37" s="15" t="str">
+      <c r="L37" s="12" t="str">
         <f t="shared" ref="L37:L41" si="8">TEXT(E37,"MMMM")</f>
         <v>May</v>
       </c>
-      <c r="M37" s="17"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="9"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
@@ -2336,7 +2930,7 @@
       <c r="D38" s="1">
         <v>123</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <f t="shared" si="3"/>
         <v>44464</v>
       </c>
@@ -2344,8 +2938,8 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -2353,19 +2947,18 @@
         <f t="shared" si="6"/>
         <v>2021</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="7" t="str">
         <f t="shared" si="7"/>
         <v>Saturday</v>
       </c>
-      <c r="L38" s="15" t="str">
+      <c r="L38" s="12" t="str">
         <f t="shared" si="8"/>
         <v>September</v>
       </c>
-      <c r="M38" s="17"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="9"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
@@ -2377,7 +2970,7 @@
       <c r="D39" s="1">
         <v>90</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <f t="shared" si="3"/>
         <v>44508</v>
       </c>
@@ -2385,8 +2978,8 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11">
+      <c r="G39" s="9"/>
+      <c r="H39" s="9">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -2394,19 +2987,18 @@
         <f t="shared" si="6"/>
         <v>2021</v>
       </c>
-      <c r="J39" s="11"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="7" t="str">
         <f t="shared" si="7"/>
         <v>Monday</v>
       </c>
-      <c r="L39" s="15" t="str">
+      <c r="L39" s="12" t="str">
         <f t="shared" si="8"/>
         <v>November</v>
       </c>
-      <c r="M39" s="17"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="9"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
@@ -2418,7 +3010,7 @@
       <c r="D40" s="1">
         <v>89</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <f t="shared" si="3"/>
         <v>44660</v>
       </c>
@@ -2426,8 +3018,8 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -2435,19 +3027,18 @@
         <f t="shared" si="6"/>
         <v>2022</v>
       </c>
-      <c r="J40" s="11"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="7" t="str">
         <f t="shared" si="7"/>
         <v>Saturday</v>
       </c>
-      <c r="L40" s="15" t="str">
+      <c r="L40" s="12" t="str">
         <f t="shared" si="8"/>
         <v>April</v>
       </c>
-      <c r="M40" s="17"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="9"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
@@ -2459,7 +3050,7 @@
       <c r="D41" s="1">
         <v>250</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="10">
         <f t="shared" si="3"/>
         <v>44844</v>
       </c>
@@ -2467,8 +3058,8 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -2476,26 +3067,673 @@
         <f t="shared" si="6"/>
         <v>2022</v>
       </c>
-      <c r="J41" s="11"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="7" t="str">
         <f t="shared" si="7"/>
         <v>Monday</v>
       </c>
-      <c r="L41" s="15" t="str">
+      <c r="L41" s="12" t="str">
         <f t="shared" si="8"/>
         <v>October</v>
       </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="9"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="P42" s="9"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B231F4-2727-49B2-A79B-9BCEAA4C2664}">
+  <dimension ref="C2:Q41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1083</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <f>COUNT(C4:G11)</f>
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <f>COUNTIF(C4:G11,"$")</f>
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <f>COUNTBLANK(C4:G11)</f>
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <f>COUNTBLANK(C4:G11)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <f>COUNTIF(C4:G11,"+")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="str">
+        <f>UPPER(C24)</f>
+        <v>YUVARAJ SINGH</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>LOWER(C24)</f>
+        <v>yuvaraj singh</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>PROPER(C24)</f>
+        <v>Yuvaraj Singh</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="str">
+        <f t="shared" ref="E25:E31" si="0">UPPER(C25)</f>
+        <v>ROBIN UTHAPPA</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" ref="F25:F31" si="1">LOWER(C25)</f>
+        <v>robin uthappa</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" ref="G25:G31" si="2">PROPER(C25)</f>
+        <v>Robin Uthappa</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RAVINDRA JADEJA</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ravindra jadeja</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Ravindra Jadeja</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SURESH RAINA</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>suresh raina</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Suresh Raina</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ROHIT SHARMA</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>rohit sharma</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Rohit Sharma</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>VIRAT KHOLI</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>virat kholi</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Virat Kholi</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RAHUL DRAVID</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>rahul dravid</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Rahul Dravid</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SHREYAS IYYER</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>shreyas iyyer</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Shreyas Iyyer</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="35" spans="3:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43873</v>
+      </c>
+      <c r="E36" s="1">
+        <v>120</v>
+      </c>
+      <c r="F36" s="6">
+        <f>SUM(D36+E36)</f>
+        <v>43993</v>
+      </c>
+      <c r="G36" s="7">
+        <f>DAY(F36)</f>
+        <v>11</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="1">
+        <f>MONTH(F36)</f>
+        <v>6</v>
+      </c>
+      <c r="J36" s="7">
+        <f>YEAR(F36)</f>
+        <v>2020</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="1" t="str">
+        <f>TEXT(F36,"DDDD")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="M36" s="7" t="str">
+        <f>TEXT(F36,"MMMM")</f>
+        <v>June</v>
+      </c>
+      <c r="N36" s="9"/>
+      <c r="O36" s="7" t="e" cm="1">
+        <f t="array" ref="O36">dat</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44269</v>
+      </c>
+      <c r="E37" s="1">
+        <v>70</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" ref="F37:F41" si="3">SUM(D37+E37)</f>
+        <v>44339</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" ref="G37:G41" si="4">DAY(F37)</f>
+        <v>23</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="1">
+        <f t="shared" ref="I37:I41" si="5">MONTH(F37)</f>
+        <v>5</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" ref="J37:J41" si="6">YEAR(F37)</f>
+        <v>2021</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="1" t="str">
+        <f t="shared" ref="L37:L41" si="7">TEXT(F37,"DDDD")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="M37" s="7" t="str">
+        <f t="shared" ref="M37:M41" si="8">TEXT(F37,"MMMM")</f>
+        <v>May</v>
+      </c>
+      <c r="N37" s="9"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44341</v>
+      </c>
+      <c r="E38" s="1">
+        <v>123</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="3"/>
+        <v>44464</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="6"/>
+        <v>2021</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Saturday</v>
+      </c>
+      <c r="M38" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>September</v>
+      </c>
+      <c r="N38" s="9"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44418</v>
+      </c>
+      <c r="E39" s="1">
+        <v>90</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="3"/>
+        <v>44508</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="1">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="6"/>
+        <v>2021</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Monday</v>
+      </c>
+      <c r="M39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>November</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44571</v>
+      </c>
+      <c r="E40" s="1">
+        <v>89</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="3"/>
+        <v>44660</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="6"/>
+        <v>2022</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Saturday</v>
+      </c>
+      <c r="M40" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>April</v>
+      </c>
+      <c r="N40" s="9"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44594</v>
+      </c>
+      <c r="E41" s="1">
+        <v>250</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="3"/>
+        <v>44844</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="6"/>
+        <v>2022</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Monday</v>
+      </c>
+      <c r="M41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>October</v>
+      </c>
+      <c r="N41" s="9"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
